--- a/5sem/42/tables/N.xlsx
+++ b/5sem/42/tables/N.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>N</t>
   </si>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>d(N-Nf)</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>dT</t>
   </si>
 </sst>
 </file>
@@ -79,9 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -359,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G34"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +399,20 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -404,13 +429,28 @@
         <v>-0.13</v>
       </c>
       <c r="F2" s="1">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -427,13 +467,28 @@
         <v>-0.08</v>
       </c>
       <c r="F3" s="1">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -450,13 +505,28 @@
         <v>0.12</v>
       </c>
       <c r="F4" s="1">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="G4" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.3220000000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -473,13 +543,28 @@
         <v>0.1</v>
       </c>
       <c r="F5" s="1">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.651</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -496,13 +581,28 @@
         <v>0.17</v>
       </c>
       <c r="F6" s="1">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="G6" s="1">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -519,13 +619,28 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F7" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="G7" s="1">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -542,13 +657,28 @@
         <v>0.99</v>
       </c>
       <c r="F8" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G8" s="1">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>86</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.835</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -565,13 +695,28 @@
         <v>1.61</v>
       </c>
       <c r="F9" s="1">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G9" s="1">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>114</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -588,13 +733,28 @@
         <v>2.73</v>
       </c>
       <c r="F10" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G10" s="1">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>161</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -611,13 +771,28 @@
         <v>3.17</v>
       </c>
       <c r="F11" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G11" s="1">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>214</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -634,13 +809,28 @@
         <v>3.18</v>
       </c>
       <c r="F12" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G12" s="1">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>271</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -657,13 +847,28 @@
         <v>3.26</v>
       </c>
       <c r="F13" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G13" s="1">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>330</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -680,13 +885,28 @@
         <v>2.77</v>
       </c>
       <c r="F14" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G14" s="1">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+      <c r="H14" s="1">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1">
+        <v>393</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -703,13 +923,28 @@
         <v>1.78</v>
       </c>
       <c r="F15" s="1">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G15" s="1">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>823</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1">
+        <v>457</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -726,13 +961,28 @@
         <v>1.48</v>
       </c>
       <c r="F16" s="1">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="G16" s="1">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1">
+        <v>479</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -749,13 +999,28 @@
         <v>0.63</v>
       </c>
       <c r="F17" s="1">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="G17" s="1">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+      <c r="H17" s="1">
+        <v>8</v>
+      </c>
+      <c r="I17" s="1">
+        <v>502</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -772,13 +1037,28 @@
         <v>0.51</v>
       </c>
       <c r="F18" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="G18" s="1">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>926</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1">
+        <v>546</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.254</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -795,13 +1075,28 @@
         <v>0.21</v>
       </c>
       <c r="F19" s="1">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="G19" s="1">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>951</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1">
+        <v>569</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.156</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -818,13 +1113,28 @@
         <v>0.35</v>
       </c>
       <c r="F20" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G20" s="1">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1">
+        <v>592</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -841,13 +1151,28 @@
         <v>0.92</v>
       </c>
       <c r="F21" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G21" s="1">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>990</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1">
+        <v>603</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.308</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -864,13 +1189,28 @@
         <v>2.1</v>
       </c>
       <c r="F22" s="1">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G22" s="1">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1003</v>
+      </c>
+      <c r="H22" s="1">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1">
+        <v>614</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -887,13 +1227,28 @@
         <v>3.63</v>
       </c>
       <c r="F23" s="1">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G23" s="1">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1015</v>
+      </c>
+      <c r="H23" s="1">
+        <v>9</v>
+      </c>
+      <c r="I23" s="1">
+        <v>626</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -910,13 +1265,28 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="F24" s="1">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="G24" s="1">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1028</v>
+      </c>
+      <c r="H24" s="1">
+        <v>9</v>
+      </c>
+      <c r="I24" s="1">
+        <v>637</v>
+      </c>
+      <c r="J24" s="1">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -933,13 +1303,28 @@
         <v>4.32</v>
       </c>
       <c r="F25" s="1">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="G25" s="1">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1054</v>
+      </c>
+      <c r="H25" s="1">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1">
+        <v>660</v>
+      </c>
+      <c r="J25" s="1">
+        <v>6</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -956,13 +1341,28 @@
         <v>3.79</v>
       </c>
       <c r="F26" s="1">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G26" s="1">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1080</v>
+      </c>
+      <c r="H26" s="1">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1">
+        <v>684</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -979,13 +1379,28 @@
         <v>3.44</v>
       </c>
       <c r="F27" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G27" s="1">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1105</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1">
+        <v>707</v>
+      </c>
+      <c r="J27" s="1">
+        <v>6</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1002,13 +1417,28 @@
         <v>2.59</v>
       </c>
       <c r="F28" s="1">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="G28" s="1">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1113</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>714</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1025,13 +1455,28 @@
         <v>1.61</v>
       </c>
       <c r="F29" s="1">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G29" s="1">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1118</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1">
+        <v>719</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1048,13 +1493,28 @@
         <v>1.33</v>
       </c>
       <c r="F30" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G30" s="1">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1131</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1">
+        <v>730</v>
+      </c>
+      <c r="J30" s="1">
+        <v>6</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1071,13 +1531,28 @@
         <v>0.11</v>
       </c>
       <c r="F31" s="1">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="G31" s="1">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1157</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1">
+        <v>754</v>
+      </c>
+      <c r="J31" s="1">
+        <v>6</v>
+      </c>
+      <c r="K31" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1094,13 +1569,28 @@
         <v>-0.23</v>
       </c>
       <c r="F32" s="1">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G32" s="1">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+      <c r="H32" s="1">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1">
+        <v>777</v>
+      </c>
+      <c r="J32" s="1">
+        <v>7</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1117,13 +1607,28 @@
         <v>-0.25</v>
       </c>
       <c r="F33" s="1">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G33" s="1">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1234</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>825</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1140,10 +1645,25 @@
         <v>-0.47</v>
       </c>
       <c r="F34" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G34" s="1">
-        <v>1292</v>
+        <v>1285</v>
+      </c>
+      <c r="H34" s="1">
+        <v>11</v>
+      </c>
+      <c r="I34" s="1">
+        <v>872</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
